--- a/biology/Zoologie/Bothrops_asper/Bothrops_asper.xlsx
+++ b/biology/Zoologie/Bothrops_asper/Bothrops_asper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops asper est une espèce de serpents de la famille des Viperidae[1]. Il est également appelé Terciopelo ou Fer de lance centro-américain. Il est souvent confondu avec le Fer de lance commun (Bothrops atrox).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops asper est une espèce de serpents de la famille des Viperidae. Il est également appelé Terciopelo ou Fer de lance centro-américain. Il est souvent confondu avec le Fer de lance commun (Bothrops atrox).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, asper, vient du latin et signifie « rugueux »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, asper, vient du latin et signifie « rugueux ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique centrale et dans le nord-ouest de l'Amérique du Sud (Colombie, ouest de l'Équateur et Venezuela)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique centrale et dans le nord-ouest de l'Amérique du Sud (Colombie, ouest de l'Équateur et Venezuela).
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes peuvent atteindre 2 mètres de long mais on a déjà observé des individus de 2,4 mètres. Les femelles sont plus grandes que les mâles. La tête est triangulaire et pointue comme un fer de lance, ce qui est dû à de puissants muscles des mâchoires. Il possède des crochets de 3 centimètres. Du point de vue couleur, des variantes existent (en principe brun à olive), avec des motifs géométriques en forme de V ou de triangles sur le dos. La partie inférieure de la tête est jaune pâle, ce qui les fait appeler barba amarilla (barbe jaune) en espagnol.
-Les fers de lance communs ont une durée de vie d'environ 20 ans. Ce sont des serpents vivipares, les femelles pouvant donner naissance jusqu'à 90 petits[1].
+Les fers de lance communs ont une durée de vie d'environ 20 ans. Ce sont des serpents vivipares, les femelles pouvant donner naissance jusqu'à 90 petits.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La morsure de ce serpent peut provoquer une nécrose parfois impressionnante en l'absence de traitement adéquat.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Garman, 1884 "1883" : The reptiles and batrachians of North America. Memoirs of the Museum of Comparative Zoology, Cambridge (Massachusetts), vol. 8, n. 3, p. 1-185 (texte intégral).</t>
         </is>
